--- a/testData/test_data.xlsx
+++ b/testData/test_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="18350" windowHeight="6950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t>username</t>
+    <t>email</t>
   </si>
   <si>
     <t>password</t>
@@ -1249,14 +1249,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.81818181818182" customWidth="1"/>
-    <col min="3" max="3" width="7.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
